--- a/data/trans_dic/P37_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P37_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:T14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,18 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que no duerme las horas de sueño recomendadas por la Soc Esp Sueño para su edad</t>
+          <t>Población que no duerme las horas de sueño recomendadas por la Soc Esp Sueño para su edad (tasa de respuesta: 99,02%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +553,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -588,42 +601,72 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -642,6 +685,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +705,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>39,56%</t>
+          <t>36,56%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>39,89%</t>
+          <t>44,98%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>38,59%</t>
+          <t>39,45%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>40,71%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>45,44%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>42,86%</t>
+          <t>49,64%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>39,57%</t>
+          <t>43,72%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>46,76%</t>
+          <t>42,34%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>42,82%</t>
+          <t>41,46%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>41,51%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>39,14%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>44,04%</t>
+          <t>49,02%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>40,44%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>43,55%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>40,57%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>49,28%</t>
         </is>
       </c>
     </row>
@@ -724,62 +803,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>30,59; 47,55</t>
+          <t>25,74; 46,23</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>33,39; 47,54</t>
+          <t>38,2; 55,05</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>32,1; 46,98</t>
+          <t>32,63; 48,02</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>34,73; 46,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>38,66; 51,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>37,83; 47,57</t>
+          <t>38,52; 68,03</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>33,6; 45,0</t>
+          <t>35,27; 52,17</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>40,93; 53,43</t>
+          <t>36,39; 48,35</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>36,84; 48,03</t>
+          <t>36,87; 47,06</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>37,57; 45,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>34,87; 44,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>39,39; 48,38</t>
+          <t>40,99; 57,66</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>33,87; 46,53</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>38,86; 48,97</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>36,63; 45,68</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>41,79; 58,12</t>
         </is>
       </c>
     </row>
@@ -796,62 +905,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>35,82%</t>
+          <t>37,3%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>33,51%</t>
+          <t>35,54%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>37,48%</t>
+          <t>38,58%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>40,57%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>38,51%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>37,24%</t>
+          <t>41,31%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>42,49%</t>
+          <t>38,13%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>45,64%</t>
+          <t>39,79%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>37,16%</t>
+          <t>43,27%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>35,34%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>39,89%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>42,85%</t>
+          <t>44,34%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>37,72%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>37,68%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>40,86%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>42,83%</t>
         </is>
       </c>
     </row>
@@ -864,62 +1003,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>31,16; 41,05</t>
+          <t>31,4; 44,97</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>29,23; 37,86</t>
+          <t>30,76; 40,52</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>32,63; 41,94</t>
+          <t>34,3; 43,64</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>35,37; 44,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>34,46; 43,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>33,68; 41,3</t>
+          <t>35,42; 48,45</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>38,51; 46,67</t>
+          <t>32,61; 43,36</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>41,04; 50,49</t>
+          <t>35,56; 44,29</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>34,07; 40,65</t>
+          <t>39,66; 47,44</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>32,89; 38,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>36,95; 43,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>39,52; 45,99</t>
+          <t>38,83; 49,88</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>33,91; 41,98</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>34,17; 41,17</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>37,82; 44,32</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>38,92; 47,41</t>
         </is>
       </c>
     </row>
@@ -936,62 +1105,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>30,94%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>31,23%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>30,34%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>30,45%</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>30,17%</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>38,38%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>28,46%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>36,57%</t>
+          <t>36,08%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>36,09%</t>
+          <t>31,56%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>39,24%</t>
+          <t>36,73%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>29,41%</t>
+          <t>36,65%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>35,52%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>31,26%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>34,13%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
           <t>33,58%</t>
         </is>
       </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>33,22%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>38,84%</t>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>35,79%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1203,99 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>24,92; 36,72</t>
+          <t>24,71; 37,73</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>25,44; 35,04</t>
+          <t>26,16; 36,07</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>25,49; 34,67</t>
+          <t>26,29; 35,24</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>30,52; 47,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>23,92; 33,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>31,92; 40,59</t>
+          <t>30,1; 42,63</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>31,9; 40,17</t>
+          <t>26,5; 36,85</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>33,39; 46,37</t>
+          <t>32,39; 41,69</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>25,9; 33,08</t>
+          <t>32,82; 40,5</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>30,32; 36,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>30,5; 36,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>33,96; 44,27</t>
+          <t>30,24; 40,18</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>27,48; 35,89</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>30,83; 37,57</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>30,64; 36,72</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>31,81; 40,09</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1305,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>34,75%</t>
+          <t>38,03%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>33,97%</t>
+          <t>29,47%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>35,4%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>40,16%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>37,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>38,46%</t>
+          <t>35,48%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>39,67%</t>
+          <t>38,45%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>44,56%</t>
+          <t>39,41%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>35,9%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>36,26%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>37,58%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>42,35%</t>
+          <t>38,18%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>38,24%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>34,15%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>36,75%</t>
         </is>
       </c>
     </row>
@@ -1144,75 +1403,2019 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>31,15; 38,22</t>
+          <t>32,54; 43,22</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>31,1; 36,98</t>
+          <t>24,13; 35,64</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>32,49; 38,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>37,06; 44,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>34,25; 40,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>35,95; 41,16</t>
+          <t>29,68; 41,46</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>36,95; 42,15</t>
+          <t>33,84; 43,03</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>41,17; 47,78</t>
+          <t>34,2; 44,51</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>33,51; 38,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>34,37; 38,03</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>35,57; 39,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>39,9; 44,85</t>
+          <t>32,36; 44,26</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>35,07; 42,01</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>30,48; 38,3</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>32,45; 41,23</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>36,17%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>34,4%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>36,08%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>39,27%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>37,46%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>39,34%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>40,62%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>41,29%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>36,82%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>36,91%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>38,4%</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>40,3%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>33,05; 39,68</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>31,67; 37,34</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>33,28; 39,31</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>35,54; 43,28</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>34,77; 40,57</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>36,94; 41,97</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>38,42; 43,19</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>38,29; 44,35</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>34,93; 39,12</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>35,17; 38,9</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>36,42; 40,34</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>38,07; 42,85</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que no duerme las horas de sueño recomendadas por la Soc Esp Sueño para su edad (tasa de respuesta: 99,02%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>87.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>109.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>113.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>162.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>79.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>109.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>200.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>271.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>132.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>124001</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>232733</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>280393</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>217853</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>175638</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>258569</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>366462</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>306773</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>299639</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>491303</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>646855</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>524626</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>87325; 156823</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>197646; 284840</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>231924; 341328</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>169051; 298524</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>141715; 209616</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>222192; 295263</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>325825; 415894</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>256519; 360867</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>250973; 344809</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>438413; 552435</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>584074; 728364</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>444914; 618743</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>109.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>165.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>228.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>133.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>134.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>217.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>292.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>170.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>243.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>382.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>520.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>303.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>330777</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>414445</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>590152</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>440351</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>361315</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>468467</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>623941</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>473862</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>692092</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>882912</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>1214093</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>914213</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>278451; 398833</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>358712; 472468</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>524684; 667532</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>377557; 516358</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>309011; 410950</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>418628; 521477</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>571835; 684093</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>414951; 533020</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>622174; 770220</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>800827; 964862</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>1123936; 1317138</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>830672; 1011889</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>77.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>117.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>148.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>97.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>168.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>219.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>137.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>174.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>285.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>367.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>236.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>221409</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>262420</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>329337</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>299763</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>240557</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>343005</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>421588</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>315934</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>461966</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>605424</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>750924</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>615697</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>176849; 270016</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>219787; 303059</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>285397; 382537</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>250099; 354231</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>202030; 280905</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>302471; 389290</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>377599; 465905</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>269011; 357396</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>406178; 530467</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>546844; 666431</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>685028; 821067</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>547255; 689677</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>162.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>94.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>112.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>187.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>130.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>126.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>349.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>224.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>238.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>533678</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>247188</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>380888</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>522247</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>294419</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>364557</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>1055926</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>541606</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>745445</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>456710; 606531</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>202405; 298960</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>318677; 445158</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>459655; 584486</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>255460; 332495</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>308961; 422579</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>968466; 1160046</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>483364; 607321</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>658199; 836303</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>394.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>463.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>485.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>397.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>481.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>628.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>673.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>512.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>875.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>1091.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>1158.0</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>909.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>1209865</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>1156785</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>1199882</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>1338855</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>1299758</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>1364459</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>1411991</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>1461126</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>2509623</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>2521245</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>2611873</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>2799981</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>1105404; 1327315</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>1065012; 1255439</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>1106960; 1307393</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>1211738; 1475496</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>1206521; 1407853</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>1281524; 1455697</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>1335610; 1501465</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>1355030; 1569480</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>2380168; 2666284</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>2402345; 2657496</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>2477470; 2744192</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>2645250; 2977469</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
